--- a/data/indexFiles/benchmarkHicDataIndex.xlsx
+++ b/data/indexFiles/benchmarkHicDataIndex.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\4DNvestigator\data\sampleData\indexFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindsly\Google Drive\UMICH\Research\4DNvesigator_lindsly\data\indexFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BF1E97-F467-48DB-9B0D-674166081892}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="7545" xr2:uid="{29F8AD39-320A-435A-91CF-9AB30172B325}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,9 +41,6 @@
     <t>hic</t>
   </si>
   <si>
-    <t>extra</t>
-  </si>
-  <si>
     <t>http://hicfiles.s3.amazonaws.com/hiseq/rpe1/DarrowHuntley-2015/WT-combined.hic</t>
   </si>
   <si>
@@ -82,12 +78,15 @@
   </si>
   <si>
     <t>HUVEC</t>
+  </si>
+  <si>
+    <t>refGenome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +130,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,11 +441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D532984E-D41E-4DC5-BBFF-9A6BA70C3CB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,109 +470,109 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
